--- a/Результат.xlsx
+++ b/Результат.xlsx
@@ -10,14 +10,14 @@
     <sheet name="сверка" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">сверка!$A$1:$J$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">сверка!$A$1:$J$27</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>Местоположение</t>
   </si>
@@ -52,19 +52,85 @@
     <t>Разница</t>
   </si>
   <si>
+    <t>012_825-12-03-2</t>
+  </si>
+  <si>
     <t>012_825-12-06-2</t>
   </si>
   <si>
+    <t>Светильник потолочный CITILUX Альпина Смарт CL718A60G, белый</t>
+  </si>
+  <si>
+    <t>Светильник потолочный CITILUX Симпла CL714480G, белый</t>
+  </si>
+  <si>
+    <t>Светильник потолочный CITILUX Симпла CL714330G, белый</t>
+  </si>
+  <si>
+    <t>Светильник потолочный CITILUX Диамант CL713A30G, белый/хром</t>
+  </si>
+  <si>
+    <t>Светильник потолочный CITILUX Спутник CL734480G, белый</t>
+  </si>
+  <si>
+    <t>Светильник потолочный CITILUX Астрон CL733900G, белый</t>
+  </si>
+  <si>
+    <t>Светильник потолочный CITILUX Астрон CL733680G, белый</t>
+  </si>
+  <si>
+    <t>Люстра CITILUX Бриз CL106235, венге/шампань</t>
+  </si>
+  <si>
+    <t>Люстра CITILUX Диез CL111160, алюминий</t>
+  </si>
+  <si>
+    <t>Светильник потолочный CITILUX Триест Смарт CL737A54E, белый</t>
+  </si>
+  <si>
+    <t>Люстра CITILUX Томми CL102170, хром/дымчатый</t>
+  </si>
+  <si>
+    <t>Светильник потолочный CITILUX Симпла CL714680G, белый</t>
+  </si>
+  <si>
+    <t>Светильник потолочный CITILUX Симпла CL714900G, белый</t>
+  </si>
+  <si>
+    <t>Светильник накладной CITILUX Бейсик CL738400V, белый</t>
+  </si>
+  <si>
+    <t>Светильник накладной CITILUX Бейсик CL738320V, белый</t>
+  </si>
+  <si>
+    <t>Люстра CITILUX Селена CL302163, бронзовый</t>
+  </si>
+  <si>
+    <t>Лампа настольная CITILUX Вена CL402833, бронзовый/кремовый/бежевый</t>
+  </si>
+  <si>
+    <t>Светильник потолочный CITILUX Старлайт Смарт CL703A30G, белый/хром</t>
+  </si>
+  <si>
+    <t>Люстра CITILUX "Аврора" CL463150, хром/белый</t>
+  </si>
+  <si>
+    <t>Люстра CITILUX "Оксфорд" CL417161, черный/хром</t>
+  </si>
+  <si>
+    <t>Светильник подвесной CITILUX CL936003, серебряный</t>
+  </si>
+  <si>
+    <t>Светильник потолочный CITILUX Альпина Смарт CL718A40G, белый</t>
+  </si>
+  <si>
+    <t>Лишний артикул на ячейке</t>
+  </si>
+  <si>
+    <t>Светильник потолочный CITILUX Астрон CL733330G, белый</t>
+  </si>
+  <si>
     <t>Светильник потолочный CITILUX Триест Смарт CL737A44E, белый</t>
-  </si>
-  <si>
-    <t>Светильник потолочный CITILUX Астрон CL733330G, белый</t>
-  </si>
-  <si>
-    <t>Лишний артикул на ячейке</t>
-  </si>
-  <si>
-    <t>Светильник потолочный CITILUX Симпла CL714480G, белый</t>
   </si>
 </sst>
 </file>
@@ -448,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,13 +562,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>80370870</v>
+        <v>80369540</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -514,13 +580,13 @@
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -528,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="B3" s="2">
-        <v>80399329</v>
+        <v>80411927</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -546,13 +612,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I3" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2">
-        <v>-1</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -560,13 +626,13 @@
         <v>10</v>
       </c>
       <c r="B4" s="2">
-        <v>80422222</v>
+        <v>80411926</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -578,13 +644,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
-        <v>2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -592,35 +658,739 @@
         <v>10</v>
       </c>
       <c r="B5" s="2">
+        <v>80404080</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>80399334</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>80399332</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>80399331</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>80390311</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>80390305</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>80370871</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>80370858</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>80411928</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <v>80411929</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2">
+        <v>80351462</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2">
+        <v>80351460</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>3</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2">
+        <v>80349686</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2">
+        <v>80349684</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2">
+        <v>80349020</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2">
+        <v>80312407</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2">
+        <v>80271628</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2">
+        <v>80015743</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2">
+        <v>80369539</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="2">
+        <v>80422222</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="2">
+        <v>80399329</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="2">
+        <v>165</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>10</v>
+      </c>
+      <c r="I25" s="2">
+        <v>9</v>
+      </c>
+      <c r="J25" s="2">
+        <v>-156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="2">
         <v>80411927</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
         <v>2</v>
       </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
         <v>-2</v>
       </c>
     </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="2">
+        <v>80370870</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="2">
+        <v>4</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>4</v>
+      </c>
+      <c r="I27" s="2">
+        <v>5</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J5"/>
+  <autoFilter ref="A1:J27"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>